--- a/data/trans_dic/P16A07-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03613127171286188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08350319126282782</v>
+        <v>0.08350319126282783</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1053773494864364</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03523053494516298</v>
+        <v>0.03495082310944906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03313834670722925</v>
+        <v>0.03342434322109412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02633462827798981</v>
+        <v>0.02612085776532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0609507077326592</v>
+        <v>0.0609541260260768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08455047169109096</v>
+        <v>0.08651711152099158</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1114331112499955</v>
+        <v>0.1114208806362969</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08989165916096321</v>
+        <v>0.08958846569959521</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1081614909520012</v>
+        <v>0.108191521338582</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0710338903443109</v>
+        <v>0.07006794217825771</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07672915567247658</v>
+        <v>0.0772750609853438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06300202248533848</v>
+        <v>0.06200996049664202</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09269645411807181</v>
+        <v>0.09245787330955696</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07093118763332125</v>
+        <v>0.07043364142834714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06171192947963829</v>
+        <v>0.06231422956192072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04979696785925481</v>
+        <v>0.04793606403180849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.110519439634382</v>
+        <v>0.1101848464407603</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.127165030800597</v>
+        <v>0.1252030912975169</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1536362421329697</v>
+        <v>0.1550471211845628</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1246571388913975</v>
+        <v>0.1260630259171968</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1525188256695479</v>
+        <v>0.1511583859604001</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09802524361566643</v>
+        <v>0.09833532346572713</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1025797465428069</v>
+        <v>0.1020916058460152</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08550388294903992</v>
+        <v>0.08412501000701751</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.125126083598108</v>
+        <v>0.1246110234619493</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01928626176857302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03222871921823883</v>
+        <v>0.03222871921823882</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05423270303473244</v>
@@ -833,7 +833,7 @@
         <v>0.03848912293102557</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0596995444303824</v>
+        <v>0.05969954443038239</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0103833468348295</v>
+        <v>0.01077225759580406</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0192722021422417</v>
+        <v>0.01931231926098163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01133761414125781</v>
+        <v>0.01222853577040988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02256689644797051</v>
+        <v>0.02287043864457029</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04030745505681046</v>
+        <v>0.04131201118335717</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05531567590926003</v>
+        <v>0.05363725519516432</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04244832394477011</v>
+        <v>0.04245285601182149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07037137022585148</v>
+        <v>0.07088306313172082</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02800395527552061</v>
+        <v>0.02805419851489132</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04023993605477529</v>
+        <v>0.0413769093060407</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03091690642449261</v>
+        <v>0.03019838010407809</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05181939877041868</v>
+        <v>0.05125864467217337</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02785426876605478</v>
+        <v>0.02691863913840208</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0423756547529826</v>
+        <v>0.0434241356422761</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0296738688174375</v>
+        <v>0.03058903421263835</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0467209492444849</v>
+        <v>0.04546513054721308</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06985378727586414</v>
+        <v>0.06910689961892583</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08535765810169486</v>
+        <v>0.08502401331113149</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07156268057184674</v>
+        <v>0.07259820972530814</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09792404651925091</v>
+        <v>0.09630844308429089</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.043639548101916</v>
+        <v>0.04501952755428211</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06045149198210963</v>
+        <v>0.06073114372083455</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04882305662243842</v>
+        <v>0.04786797031292485</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07013966292064312</v>
+        <v>0.07120837561809853</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.05308864432992487</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05892570455220515</v>
+        <v>0.05892570455220516</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0269096788648319</v>
@@ -969,7 +969,7 @@
         <v>0.03300060795452631</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04051667820662721</v>
+        <v>0.04051667820662722</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005299745531637642</v>
+        <v>0.005332707996276554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01790886221915887</v>
+        <v>0.01747436484455355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007458595591919467</v>
+        <v>0.007539892024336906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01511425564842602</v>
+        <v>0.01466551158873291</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03371363023362391</v>
+        <v>0.03510110801424336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04806515412272169</v>
+        <v>0.04795666143768521</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0370387368360725</v>
+        <v>0.03816539725801544</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04717547424376238</v>
+        <v>0.04821250652617925</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02062738795249687</v>
+        <v>0.02020372589181278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03622993040443773</v>
+        <v>0.03632701245142665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02402440174368914</v>
+        <v>0.0239105168376317</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03325640183720486</v>
+        <v>0.03313416326143456</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0182363595865617</v>
+        <v>0.01697178905011245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04071303096494921</v>
+        <v>0.04163169245296532</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02473116393924851</v>
+        <v>0.02617396500417792</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03225535083789166</v>
+        <v>0.03170818651585642</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06032318597987121</v>
+        <v>0.06180999081077218</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08256209289947689</v>
+        <v>0.08273152194905412</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07335357350612967</v>
+        <v>0.07240454673026427</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07120891647895772</v>
+        <v>0.07288914638799078</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03507129424339851</v>
+        <v>0.03455033019239755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05736035958274444</v>
+        <v>0.05675230547600338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04491563042032761</v>
+        <v>0.04383342678111558</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04912552421147702</v>
+        <v>0.04850849568870681</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03432366469748992</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05304456687614184</v>
+        <v>0.05304456687614183</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02755184313410457</v>
@@ -1105,7 +1105,7 @@
         <v>0.0211118140553315</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03685385865537155</v>
+        <v>0.03685385865537154</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00876770637909923</v>
+        <v>0.009093274552540873</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007080688390951435</v>
+        <v>0.00745222605085227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001956003227729041</v>
+        <v>0.002276640819170847</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0142006951808739</v>
+        <v>0.01388551652367017</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01972869437638498</v>
+        <v>0.02104931185344153</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02446562693198029</v>
+        <v>0.02497325793271551</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01989842758448493</v>
+        <v>0.01980754939486669</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04114855989892644</v>
+        <v>0.04301190129259121</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01718805179654966</v>
+        <v>0.01725995820544171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01844986653213945</v>
+        <v>0.01842597633613388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01378783870758554</v>
+        <v>0.01219767792546606</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02989233569668127</v>
+        <v>0.02985949020244338</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03520494045988343</v>
+        <v>0.0370962016403197</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0329479730839165</v>
+        <v>0.03227660925910147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02111776607415375</v>
+        <v>0.01901581678415325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03283404987793663</v>
+        <v>0.03303461607773497</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06177290810309795</v>
+        <v>0.06550456347099709</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06088486839011669</v>
+        <v>0.06437590540217029</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05582568126939899</v>
+        <v>0.05509464363670076</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0649097554277417</v>
+        <v>0.06569175407691769</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04099301551807288</v>
+        <v>0.04159800211826884</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04162251748011313</v>
+        <v>0.04140916187154624</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03314657087410051</v>
+        <v>0.03171948373824819</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04572346002683068</v>
+        <v>0.04417363322229682</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.04673818175611084</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05575800465383149</v>
+        <v>0.0557580046538315</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01656158350790175</v>
+        <v>0.01668860080108926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02554177999211594</v>
+        <v>0.02568066120661271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01759953191639446</v>
+        <v>0.01715031679643574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02800778848711221</v>
+        <v>0.02817197096940184</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05626389001240911</v>
+        <v>0.05656880365105636</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0741633865154064</v>
+        <v>0.07529345050914212</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06213354039799392</v>
+        <v>0.06167885410930123</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06941317685377514</v>
+        <v>0.0696294211038912</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03828756412986355</v>
+        <v>0.03832133527003086</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0523116397867564</v>
+        <v>0.05259386191629502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04167878506299383</v>
+        <v>0.04183198674167298</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05105105740790244</v>
+        <v>0.05154604625662912</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02651577441045129</v>
+        <v>0.02631131890062936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03861932221173535</v>
+        <v>0.03865599518067692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02749654743121468</v>
+        <v>0.02708917712385411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04030339784603536</v>
+        <v>0.03950939709852588</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07274871997396107</v>
+        <v>0.07395883042708261</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09338843559109536</v>
+        <v>0.09404789583645226</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07872561321796638</v>
+        <v>0.08048488755990633</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08363316330245989</v>
+        <v>0.08439937624416699</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04847752888303062</v>
+        <v>0.047993277914663</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06448340018729129</v>
+        <v>0.06434363567866008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05249953723080786</v>
+        <v>0.05194687073483364</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06053959717485143</v>
+        <v>0.06109515823920484</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20580</v>
+        <v>20416</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34458</v>
+        <v>34755</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29705</v>
+        <v>29464</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30398</v>
+        <v>30400</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>77984</v>
+        <v>79798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>124192</v>
+        <v>124179</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>113224</v>
+        <v>112842</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>67447</v>
+        <v>67466</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>107011</v>
+        <v>105556</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>165299</v>
+        <v>166475</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>150421</v>
+        <v>148052</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>104035</v>
+        <v>103767</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41434</v>
+        <v>41143</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64169</v>
+        <v>64795</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56171</v>
+        <v>54072</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55120</v>
+        <v>54953</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>117289</v>
+        <v>115479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>171228</v>
+        <v>172800</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>157013</v>
+        <v>158784</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95108</v>
+        <v>94259</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>147672</v>
+        <v>148140</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>220989</v>
+        <v>219938</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>204145</v>
+        <v>200853</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>140432</v>
+        <v>139853</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11192</v>
+        <v>11611</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18761</v>
+        <v>18800</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10304</v>
+        <v>11114</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21656</v>
+        <v>21947</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42627</v>
+        <v>43689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>60355</v>
+        <v>58523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>42723</v>
+        <v>42728</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>78481</v>
+        <v>79052</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59801</v>
+        <v>59908</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>83079</v>
+        <v>85426</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59215</v>
+        <v>57839</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>107519</v>
+        <v>106356</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30024</v>
+        <v>29015</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41252</v>
+        <v>42273</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26968</v>
+        <v>27800</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44835</v>
+        <v>43630</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73873</v>
+        <v>73083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>93133</v>
+        <v>92769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>72026</v>
+        <v>73068</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109209</v>
+        <v>107408</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>93189</v>
+        <v>96136</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>124807</v>
+        <v>125385</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93511</v>
+        <v>91682</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>145532</v>
+        <v>147749</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5939</v>
+        <v>5976</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15835</v>
+        <v>15451</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6144</v>
+        <v>6211</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15817</v>
+        <v>15347</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33509</v>
+        <v>34888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42046</v>
+        <v>41951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28559</v>
+        <v>29428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49407</v>
+        <v>50493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43617</v>
+        <v>42721</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>63727</v>
+        <v>63897</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>38315</v>
+        <v>38133</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>69632</v>
+        <v>69376</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20435</v>
+        <v>19018</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35998</v>
+        <v>36810</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20373</v>
+        <v>21561</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33755</v>
+        <v>33182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59958</v>
+        <v>61435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72222</v>
+        <v>72370</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56560</v>
+        <v>55828</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74578</v>
+        <v>76338</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>74159</v>
+        <v>73057</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>100894</v>
+        <v>99824</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>71632</v>
+        <v>69906</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>102859</v>
+        <v>101567</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3921</v>
+        <v>4067</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3562</v>
+        <v>3749</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>991</v>
+        <v>1154</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13859</v>
+        <v>13551</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6731</v>
+        <v>7181</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11031</v>
+        <v>11260</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9744</v>
+        <v>9700</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37389</v>
+        <v>39082</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13550</v>
+        <v>13607</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>17599</v>
+        <v>17576</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13738</v>
+        <v>12154</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56334</v>
+        <v>56272</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15744</v>
+        <v>16589</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16574</v>
+        <v>16236</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10700</v>
+        <v>9635</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32044</v>
+        <v>32239</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21074</v>
+        <v>22347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27451</v>
+        <v>29025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27338</v>
+        <v>26980</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>58980</v>
+        <v>59690</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32317</v>
+        <v>32794</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39703</v>
+        <v>39500</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33027</v>
+        <v>31605</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86169</v>
+        <v>83248</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>53491</v>
+        <v>53901</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>86855</v>
+        <v>87327</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59263</v>
+        <v>57750</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>97489</v>
+        <v>98061</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>186513</v>
+        <v>187524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>261888</v>
+        <v>265878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>219132</v>
+        <v>217528</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>256466</v>
+        <v>257265</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>250584</v>
+        <v>250805</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>362611</v>
+        <v>364567</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>287337</v>
+        <v>288393</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>366320</v>
+        <v>369872</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>85641</v>
+        <v>84981</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>131326</v>
+        <v>131450</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92589</v>
+        <v>91217</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>140288</v>
+        <v>137524</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>241160</v>
+        <v>245171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>329776</v>
+        <v>332105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>277649</v>
+        <v>283853</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>309006</v>
+        <v>311837</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>317275</v>
+        <v>314105</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>446982</v>
+        <v>446013</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>361936</v>
+        <v>358126</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>434406</v>
+        <v>438392</v>
       </c>
     </row>
     <row r="24">
